--- a/Costes/Estimacion usuarios.xlsx
+++ b/Costes/Estimacion usuarios.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvaes-my.sharepoint.com/personal/david_manso_estudiantes_uva_es/Documents/Master/2Cuatri/TallerDeProyectos2/Costes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E57F585-BE97-5E42-99D2-F1079B03D883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{1E57F585-BE97-5E42-99D2-F1079B03D883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32AC8241-BE84-D54E-A682-B1F761F8E249}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="33600" windowHeight="19340" xr2:uid="{4140EBA0-13DE-C54F-AEDB-87AD6CAD6CFB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19340" xr2:uid="{4140EBA0-13DE-C54F-AEDB-87AD6CAD6CFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -286,7 +286,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -317,13 +317,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -334,16 +331,16 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -361,22 +358,22 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -392,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A284E832-FA93-B24B-A69C-DBDD71D2CFC3}" name="Tabla1" displayName="Tabla1" ref="A3:E4" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A284E832-FA93-B24B-A69C-DBDD71D2CFC3}" name="Tabla1" displayName="Tabla1" ref="A3:E4" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A3:E4" xr:uid="{A284E832-FA93-B24B-A69C-DBDD71D2CFC3}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -409,7 +406,7 @@
     <tableColumn id="4" xr3:uid="{EB2F688D-A3CE-0F4A-BAC9-3B161784A169}" name="Maximo nº de vehiculos por km al dia">
       <calculatedColumnFormula>C4/365</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D625B1C3-0EA0-9F4A-98F5-56AE2F7EA3F2}" name="Maximo vehiculos simultaneos por ENB" dataDxfId="8">
+    <tableColumn id="5" xr3:uid="{D625B1C3-0EA0-9F4A-98F5-56AE2F7EA3F2}" name="Maximo vehiculos simultaneos por ENB" dataDxfId="11">
       <calculatedColumnFormula>D4*$H$6/$H$7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -427,7 +424,7 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F7F447AC-5B2C-5244-BB73-6B35CB544CF2}" name="Minimo nº de vehiculos por km al año" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{F7F447AC-5B2C-5244-BB73-6B35CB544CF2}" name="Minimo nº de vehiculos por km al año" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{237DAB7E-82C2-B748-98A0-C5093422335A}" name="km por tramo"/>
     <tableColumn id="3" xr3:uid="{A3901713-0B4D-A748-AE9E-B209FAD796AC}" name="Minimo nº de vehiculos por tramo al año">
       <calculatedColumnFormula>A6*B6</calculatedColumnFormula>
@@ -435,7 +432,7 @@
     <tableColumn id="4" xr3:uid="{AFCE4729-F397-A64D-BC85-387B4821D684}" name="Minimo nº de vehiculos por km al dia">
       <calculatedColumnFormula>C6/365</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1D90FB9F-E7FF-504C-9A46-6124DEA46810}" name="Minimo vehiculos simultaneos por ENB" dataDxfId="7">
+    <tableColumn id="5" xr3:uid="{1D90FB9F-E7FF-504C-9A46-6124DEA46810}" name="Minimo vehiculos simultaneos por ENB" dataDxfId="8">
       <calculatedColumnFormula>D6*$H$6/$H$7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -444,7 +441,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8ED98718-11B3-BA47-9157-62FC05BB6148}" name="Tabla3" displayName="Tabla3" ref="A7:E8" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8ED98718-11B3-BA47-9157-62FC05BB6148}" name="Tabla3" displayName="Tabla3" ref="A7:E8" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="A7:E8" xr:uid="{8ED98718-11B3-BA47-9157-62FC05BB6148}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -488,7 +485,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{65B98F55-071D-8A4E-B96C-AD05BEDFBAAF}" name="Tabla6" displayName="Tabla6" ref="B11:I15" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{65B98F55-071D-8A4E-B96C-AD05BEDFBAAF}" name="Tabla6" displayName="Tabla6" ref="B11:I15" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="B11:I15" xr:uid="{65B98F55-071D-8A4E-B96C-AD05BEDFBAAF}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -500,13 +497,13 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{1199CD68-2F78-DF40-97A9-553C5DC55F6F}" name="Estimación" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{1199CD68-2F78-DF40-97A9-553C5DC55F6F}" name="Estimación" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{EA9A9984-7B0E-8A40-B9AF-8569A02CD28C}" name="Descripción"/>
-    <tableColumn id="3" xr3:uid="{3ACD6F07-EC2C-1B4D-9D15-1248DFC6FD39}" name="Clientes Totales" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{72FB2B1A-4511-E040-AF0E-9A63CEB643FE}" name="Clientes Tarifa Detección" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{3ACD6F07-EC2C-1B4D-9D15-1248DFC6FD39}" name="Clientes Totales" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{72FB2B1A-4511-E040-AF0E-9A63CEB643FE}" name="Clientes Tarifa Detección" dataDxfId="1">
       <calculatedColumnFormula>D12*($E$18/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{28126AFB-2580-464F-8279-3694E0A1FAB4}" name="Clientes Tarifa Fetección+Control" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{28126AFB-2580-464F-8279-3694E0A1FAB4}" name="Clientes Tarifa Fetección+Control" dataDxfId="0">
       <calculatedColumnFormula>D12*$E$19/100</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{8B20B3E3-781A-3940-B189-A2BEA616DD2E}" name="Ingresos Tarfia Detección" dataCellStyle="Moneda">
@@ -823,20 +820,20 @@
   <dimension ref="A3:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.83203125" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="29.6640625" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="6" max="6" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1025,15 +1022,15 @@
         <f>D12*$E$19/100</f>
         <v>483.70894977168945</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="14">
         <f>E12*$D$18</f>
         <v>3627.8171232876707</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="14">
         <f>F12*$D$19</f>
         <v>4837.0894977168946</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="14">
         <f>G12+H12</f>
         <v>8464.9066210045657</v>
       </c>
@@ -1057,15 +1054,15 @@
         <f t="shared" ref="F13:F15" si="1">D13*$E$19/100</f>
         <v>296.8046118721461</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <f t="shared" ref="G13:G15" si="2">E13*$D$18</f>
         <v>2226.0345890410958</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="14">
         <f t="shared" ref="H13:H15" si="3">F13*$D$19</f>
         <v>2968.046118721461</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="14">
         <f t="shared" ref="I13:I15" si="4">G13+H13</f>
         <v>5194.0807077625568</v>
       </c>
@@ -1089,15 +1086,15 @@
         <f t="shared" si="1"/>
         <v>148.40230593607305</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="14">
         <f t="shared" si="2"/>
         <v>1113.0172945205479</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="14">
         <f t="shared" si="3"/>
         <v>1484.0230593607305</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="14">
         <f t="shared" si="4"/>
         <v>2597.0403538812784</v>
       </c>
@@ -1121,21 +1118,21 @@
         <f t="shared" si="1"/>
         <v>109.90027397260273</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="14">
         <f t="shared" si="2"/>
         <v>824.25205479452052</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="14">
         <f t="shared" si="3"/>
         <v>1099.0027397260274</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="14">
         <f t="shared" si="4"/>
         <v>1923.2547945205479</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1146,10 +1143,10 @@
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="14">
         <v>5</v>
       </c>
       <c r="E18">
@@ -1157,10 +1154,10 @@
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="14">
         <v>10</v>
       </c>
       <c r="E19">

--- a/Costes/Estimacion usuarios.xlsx
+++ b/Costes/Estimacion usuarios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvaes-my.sharepoint.com/personal/david_manso_estudiantes_uva_es/Documents/Master/2Cuatri/TallerDeProyectos2/Costes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidmanso/Library/CloudStorage/OneDrive-UVa/Master/2Cuatri/TallerDeProyectos2/Costes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{1E57F585-BE97-5E42-99D2-F1079B03D883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32AC8241-BE84-D54E-A682-B1F761F8E249}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BC55C8-D24F-BD49-8BD7-98645C04CEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19340" xr2:uid="{4140EBA0-13DE-C54F-AEDB-87AD6CAD6CFB}"/>
   </bookViews>
@@ -58,40 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
-  <si>
-    <t>Maximo nº de vehiculos por tramo al año</t>
-  </si>
-  <si>
-    <t>Maximo nº de vehiculos por km al año</t>
-  </si>
-  <si>
-    <t>Maximo nº de vehiculos por km al dia</t>
-  </si>
-  <si>
-    <t>Minimo nº de vehiculos por km al año</t>
-  </si>
-  <si>
-    <t>Minimo nº de vehiculos por tramo al año</t>
-  </si>
-  <si>
-    <t>Minimo nº de vehiculos por km al dia</t>
-  </si>
-  <si>
-    <t>Minimo vehiculos simultaneos por ENB</t>
-  </si>
-  <si>
-    <t>Media nº de vehiculos por km al año</t>
-  </si>
-  <si>
-    <t>Media nº de vehiculos por tramo al año</t>
-  </si>
-  <si>
-    <t>Media nº de vehiculos por km al dia</t>
-  </si>
-  <si>
-    <t>Media vehiculos simultaneos por ENB</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>velocidad media (km/h):</t>
   </si>
@@ -105,9 +72,6 @@
     <t>minutos en un dia:</t>
   </si>
   <si>
-    <t>Maximo vehiculos simultaneos por ENB</t>
-  </si>
-  <si>
     <t>Estimación</t>
   </si>
   <si>
@@ -160,6 +124,39 @@
   </si>
   <si>
     <t>Clientes Tarifa Fetección+Control</t>
+  </si>
+  <si>
+    <t>Máximo vehículos reales</t>
+  </si>
+  <si>
+    <t>Máximo (vehículos · km/año)</t>
+  </si>
+  <si>
+    <t>Máximo (vehículos · tramo/año)</t>
+  </si>
+  <si>
+    <t>Máximo (vehículos · tramo/día)</t>
+  </si>
+  <si>
+    <t>Vehículos por ENB</t>
+  </si>
+  <si>
+    <t>Mínimo (vehículos · km/año)</t>
+  </si>
+  <si>
+    <t>Mínimo (vehículos · tramo/año)</t>
+  </si>
+  <si>
+    <t>Mínimo (vehículos · tramo/día)</t>
+  </si>
+  <si>
+    <t>Media (vehículos · km/año)</t>
+  </si>
+  <si>
+    <t>Media (vehículos · tramo/año)</t>
+  </si>
+  <si>
+    <t>Media (vehículos · tramo/día)</t>
   </si>
 </sst>
 </file>
@@ -286,7 +283,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -324,23 +321,47 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -358,16 +379,10 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -389,7 +404,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A284E832-FA93-B24B-A69C-DBDD71D2CFC3}" name="Tabla1" displayName="Tabla1" ref="A3:E4" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A284E832-FA93-B24B-A69C-DBDD71D2CFC3}" name="Tabla1" displayName="Tabla1" ref="A3:E4" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="A3:E4" xr:uid="{A284E832-FA93-B24B-A69C-DBDD71D2CFC3}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -398,15 +413,15 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A7872CCD-25D3-3F4C-93F9-DFFEFE500455}" name="Maximo nº de vehiculos por km al año"/>
+    <tableColumn id="1" xr3:uid="{A7872CCD-25D3-3F4C-93F9-DFFEFE500455}" name="Máximo (vehículos · km/año)"/>
     <tableColumn id="2" xr3:uid="{E1C43FB2-2E71-484C-94D8-993DE78EB3CC}" name="km por tramo"/>
-    <tableColumn id="3" xr3:uid="{D88CA379-9350-D748-A7AA-4D3846E8A97F}" name="Maximo nº de vehiculos por tramo al año">
+    <tableColumn id="3" xr3:uid="{D88CA379-9350-D748-A7AA-4D3846E8A97F}" name="Máximo (vehículos · tramo/año)">
       <calculatedColumnFormula>A4*B4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{EB2F688D-A3CE-0F4A-BAC9-3B161784A169}" name="Maximo nº de vehiculos por km al dia">
+    <tableColumn id="4" xr3:uid="{EB2F688D-A3CE-0F4A-BAC9-3B161784A169}" name="Máximo (vehículos · tramo/día)">
       <calculatedColumnFormula>C4/365</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D625B1C3-0EA0-9F4A-98F5-56AE2F7EA3F2}" name="Maximo vehiculos simultaneos por ENB" dataDxfId="11">
+    <tableColumn id="5" xr3:uid="{D625B1C3-0EA0-9F4A-98F5-56AE2F7EA3F2}" name="Vehículos por ENB" dataDxfId="12">
       <calculatedColumnFormula>D4*$H$6/$H$7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -415,7 +430,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC9F114B-8620-F84E-B7A7-516ED6714A81}" name="Tabla2" displayName="Tabla2" ref="A5:E6" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FC9F114B-8620-F84E-B7A7-516ED6714A81}" name="Tabla2" displayName="Tabla2" ref="A5:E6" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A5:E6" xr:uid="{FC9F114B-8620-F84E-B7A7-516ED6714A81}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -424,15 +439,15 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{F7F447AC-5B2C-5244-BB73-6B35CB544CF2}" name="Minimo nº de vehiculos por km al año" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{F7F447AC-5B2C-5244-BB73-6B35CB544CF2}" name="Mínimo (vehículos · km/año)" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{237DAB7E-82C2-B748-98A0-C5093422335A}" name="km por tramo"/>
-    <tableColumn id="3" xr3:uid="{A3901713-0B4D-A748-AE9E-B209FAD796AC}" name="Minimo nº de vehiculos por tramo al año">
+    <tableColumn id="3" xr3:uid="{A3901713-0B4D-A748-AE9E-B209FAD796AC}" name="Mínimo (vehículos · tramo/año)">
       <calculatedColumnFormula>A6*B6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AFCE4729-F397-A64D-BC85-387B4821D684}" name="Minimo nº de vehiculos por km al dia">
+    <tableColumn id="4" xr3:uid="{AFCE4729-F397-A64D-BC85-387B4821D684}" name="Mínimo (vehículos · tramo/día)">
       <calculatedColumnFormula>C6/365</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1D90FB9F-E7FF-504C-9A46-6124DEA46810}" name="Minimo vehiculos simultaneos por ENB" dataDxfId="8">
+    <tableColumn id="5" xr3:uid="{1D90FB9F-E7FF-504C-9A46-6124DEA46810}" name="Vehículos por ENB" dataDxfId="10">
       <calculatedColumnFormula>D6*$H$6/$H$7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -441,7 +456,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8ED98718-11B3-BA47-9157-62FC05BB6148}" name="Tabla3" displayName="Tabla3" ref="A7:E8" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8ED98718-11B3-BA47-9157-62FC05BB6148}" name="Tabla3" displayName="Tabla3" ref="A7:E8" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A7:E8" xr:uid="{8ED98718-11B3-BA47-9157-62FC05BB6148}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -450,17 +465,17 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{21FD6CAE-5F0E-DC4F-A384-F96B24ACA3C0}" name="Media nº de vehiculos por km al año">
+    <tableColumn id="1" xr3:uid="{21FD6CAE-5F0E-DC4F-A384-F96B24ACA3C0}" name="Media (vehículos · km/año)">
       <calculatedColumnFormula>(A4+A6)/2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{7CB5ABC8-213C-5C45-84E0-99A9A810F08C}" name="km por tramo"/>
-    <tableColumn id="3" xr3:uid="{409040F8-9CDE-3C4A-B5CB-E82447CDFC17}" name="Media nº de vehiculos por tramo al año">
+    <tableColumn id="3" xr3:uid="{409040F8-9CDE-3C4A-B5CB-E82447CDFC17}" name="Media (vehículos · tramo/año)">
       <calculatedColumnFormula>A8*B8</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{0DB5A460-F345-E242-806F-55F8FBCAF47B}" name="Media nº de vehiculos por km al dia">
+    <tableColumn id="4" xr3:uid="{0DB5A460-F345-E242-806F-55F8FBCAF47B}" name="Media (vehículos · tramo/día)">
       <calculatedColumnFormula>C8/365</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BD36B578-7F95-064F-B396-8D5CDD9A6D01}" name="Media vehiculos simultaneos por ENB" dataDxfId="6">
+    <tableColumn id="5" xr3:uid="{BD36B578-7F95-064F-B396-8D5CDD9A6D01}" name="Vehículos por ENB" dataDxfId="9">
       <calculatedColumnFormula>D8*$H$6/$H$7</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -469,14 +484,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D1340350-BD30-A64F-A49C-DDFF12D08C62}" name="Tabla5" displayName="Tabla5" ref="C17:E19" totalsRowShown="0">
-  <autoFilter ref="C17:E19" xr:uid="{D1340350-BD30-A64F-A49C-DDFF12D08C62}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D1340350-BD30-A64F-A49C-DDFF12D08C62}" name="Tabla5" displayName="Tabla5" ref="C18:E20" totalsRowShown="0">
+  <autoFilter ref="C18:E20" xr:uid="{D1340350-BD30-A64F-A49C-DDFF12D08C62}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BE1A2666-F578-1F43-98F4-15C0E18082F7}" name="Tarifa" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{BE1A2666-F578-1F43-98F4-15C0E18082F7}" name="Tarifa" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{EA02B0A9-4DE9-874E-BB3A-B3288EEBB3C5}" name="Precio"/>
     <tableColumn id="3" xr3:uid="{D18C93A6-8FBF-774E-8264-41F6BD195CE1}" name="Porcentaje de Usuarios"/>
   </tableColumns>
@@ -485,8 +500,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{65B98F55-071D-8A4E-B96C-AD05BEDFBAAF}" name="Tabla6" displayName="Tabla6" ref="B11:I15" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="B11:I15" xr:uid="{65B98F55-071D-8A4E-B96C-AD05BEDFBAAF}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{65B98F55-071D-8A4E-B96C-AD05BEDFBAAF}" name="Tabla6" displayName="Tabla6" ref="B11:I16" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="B11:I16" xr:uid="{65B98F55-071D-8A4E-B96C-AD05BEDFBAAF}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -497,13 +512,13 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{1199CD68-2F78-DF40-97A9-553C5DC55F6F}" name="Estimación" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{EA9A9984-7B0E-8A40-B9AF-8569A02CD28C}" name="Descripción"/>
-    <tableColumn id="3" xr3:uid="{3ACD6F07-EC2C-1B4D-9D15-1248DFC6FD39}" name="Clientes Totales" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{72FB2B1A-4511-E040-AF0E-9A63CEB643FE}" name="Clientes Tarifa Detección" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{1199CD68-2F78-DF40-97A9-553C5DC55F6F}" name="Estimación" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{EA9A9984-7B0E-8A40-B9AF-8569A02CD28C}" name="Descripción" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{3ACD6F07-EC2C-1B4D-9D15-1248DFC6FD39}" name="Clientes Totales" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{72FB2B1A-4511-E040-AF0E-9A63CEB643FE}" name="Clientes Tarifa Detección" dataDxfId="6">
       <calculatedColumnFormula>D12*($E$18/100)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{28126AFB-2580-464F-8279-3694E0A1FAB4}" name="Clientes Tarifa Fetección+Control" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{28126AFB-2580-464F-8279-3694E0A1FAB4}" name="Clientes Tarifa Fetección+Control" dataDxfId="5">
       <calculatedColumnFormula>D12*$E$19/100</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{8B20B3E3-781A-3940-B189-A2BEA616DD2E}" name="Ingresos Tarfia Detección" dataCellStyle="Moneda">
@@ -817,19 +832,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5865881D-1E0B-204B-A33B-7D78EE2B96EE}">
-  <dimension ref="A3:J19"/>
+  <dimension ref="A3:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.83203125" bestFit="1" customWidth="1"/>
@@ -838,19 +853,19 @@
   <sheetData>
     <row r="3" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -873,7 +888,7 @@
         <v>1209.2723744292236</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H4" s="7">
         <v>100</v>
@@ -881,22 +896,22 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>6</v>
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H5" s="9">
         <v>10</v>
@@ -922,7 +937,7 @@
         <v>274.75068493150684</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H6" s="9">
         <f>(H5/H4)*60</f>
@@ -931,22 +946,22 @@
     </row>
     <row r="7" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H7" s="5">
         <f>24*60</f>
@@ -979,189 +994,220 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="10" cm="1">
-        <f t="array" ref="D12">Tabla1[Maximo vehiculos simultaneos por ENB]</f>
-        <v>1209.2723744292236</v>
-      </c>
-      <c r="E12" s="10">
-        <f>D12*($E$18/100)</f>
-        <v>725.56342465753414</v>
-      </c>
-      <c r="F12" s="10">
-        <f>D12*$E$19/100</f>
-        <v>483.70894977168945</v>
-      </c>
-      <c r="G12" s="14">
-        <f>E12*$D$18</f>
-        <v>3627.8171232876707</v>
-      </c>
-      <c r="H12" s="14">
-        <f>F12*$D$19</f>
-        <v>4837.0894977168946</v>
-      </c>
-      <c r="I12" s="14">
+      <c r="C12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="11">
+        <v>30</v>
+      </c>
+      <c r="E12" s="11">
+        <f>D12*($E$19/100)</f>
+        <v>9</v>
+      </c>
+      <c r="F12" s="11">
+        <f>D12*$E$20/100</f>
+        <v>21</v>
+      </c>
+      <c r="G12" s="15">
+        <f>E12*$D$19</f>
+        <v>135</v>
+      </c>
+      <c r="H12" s="15">
+        <f>F12*$D$20</f>
+        <v>840</v>
+      </c>
+      <c r="I12" s="16">
         <f>G12+H12</f>
-        <v>8464.9066210045657</v>
+        <v>975</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="3">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="10" cm="1">
-        <f t="array" ref="D13">Tabla3[Media vehiculos simultaneos por ENB]</f>
-        <v>742.01152968036524</v>
-      </c>
-      <c r="E13" s="10">
-        <f t="shared" ref="E13:E15" si="0">D13*($E$18/100)</f>
-        <v>445.20691780821915</v>
-      </c>
-      <c r="F13" s="10">
-        <f t="shared" ref="F13:F15" si="1">D13*$E$19/100</f>
-        <v>296.8046118721461</v>
+      <c r="C13" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="17" cm="1">
+        <f t="array" ref="D13">Tabla1[Vehículos por ENB]</f>
+        <v>1209.2723744292236</v>
+      </c>
+      <c r="E13" s="17">
+        <f>D13*($E$19/100)</f>
+        <v>362.78171232876707</v>
+      </c>
+      <c r="F13" s="17">
+        <f>D13*$E$20/100</f>
+        <v>846.49066210045657</v>
       </c>
       <c r="G13" s="14">
-        <f t="shared" ref="G13:G15" si="2">E13*$D$18</f>
-        <v>2226.0345890410958</v>
+        <f>E13*$D$19</f>
+        <v>5441.7256849315063</v>
       </c>
       <c r="H13" s="14">
-        <f t="shared" ref="H13:H15" si="3">F13*$D$19</f>
-        <v>2968.046118721461</v>
+        <f>F13*$D$20</f>
+        <v>33859.626484018263</v>
       </c>
       <c r="I13" s="14">
-        <f t="shared" ref="I13:I15" si="4">G13+H13</f>
-        <v>5194.0807077625568</v>
+        <f>G13+H13</f>
+        <v>39301.352168949772</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="3">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="10" cm="1">
-        <f t="array" ref="D14">0.5*Tabla3[Media vehiculos simultaneos por ENB]</f>
-        <v>371.00576484018262</v>
-      </c>
-      <c r="E14" s="10">
-        <f t="shared" si="0"/>
+      <c r="C14" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="17" cm="1">
+        <f t="array" ref="D14">Tabla3[Vehículos por ENB]</f>
+        <v>742.01152968036524</v>
+      </c>
+      <c r="E14" s="17">
+        <f t="shared" ref="E14:E16" si="0">D14*($E$19/100)</f>
         <v>222.60345890410957</v>
       </c>
-      <c r="F14" s="10">
-        <f t="shared" si="1"/>
-        <v>148.40230593607305</v>
+      <c r="F14" s="17">
+        <f t="shared" ref="F14:F16" si="1">D14*$E$20/100</f>
+        <v>519.40807077625573</v>
       </c>
       <c r="G14" s="14">
-        <f t="shared" si="2"/>
-        <v>1113.0172945205479</v>
+        <f t="shared" ref="G14:G16" si="2">E14*$D$19</f>
+        <v>3339.0518835616435</v>
       </c>
       <c r="H14" s="14">
-        <f t="shared" si="3"/>
-        <v>1484.0230593607305</v>
+        <f t="shared" ref="H14:H16" si="3">F14*$D$20</f>
+        <v>20776.322831050231</v>
       </c>
       <c r="I14" s="14">
-        <f t="shared" si="4"/>
-        <v>2597.0403538812784</v>
+        <f t="shared" ref="I14:I16" si="4">G14+H14</f>
+        <v>24115.374714611873</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="3">
         <v>4</v>
       </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="10" cm="1">
-        <f t="array" ref="D15">Tabla2[Minimo vehiculos simultaneos por ENB]</f>
-        <v>274.75068493150684</v>
-      </c>
-      <c r="E15" s="10">
+      <c r="C15" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="17" cm="1">
+        <f t="array" ref="D15">0.5*Tabla3[Vehículos por ENB]</f>
+        <v>371.00576484018262</v>
+      </c>
+      <c r="E15" s="17">
         <f t="shared" si="0"/>
-        <v>164.85041095890409</v>
-      </c>
-      <c r="F15" s="10">
+        <v>111.30172945205479</v>
+      </c>
+      <c r="F15" s="17">
         <f t="shared" si="1"/>
-        <v>109.90027397260273</v>
+        <v>259.70403538812786</v>
       </c>
       <c r="G15" s="14">
         <f t="shared" si="2"/>
-        <v>824.25205479452052</v>
+        <v>1669.5259417808218</v>
       </c>
       <c r="H15" s="14">
         <f t="shared" si="3"/>
-        <v>1099.0027397260274</v>
+        <v>10388.161415525115</v>
       </c>
       <c r="I15" s="14">
         <f t="shared" si="4"/>
-        <v>1923.2547945205479</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>27</v>
+        <v>12057.687357305937</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="3">
+        <v>5</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="17" cm="1">
+        <f t="array" ref="D16">Tabla2[Vehículos por ENB]</f>
+        <v>274.75068493150684</v>
+      </c>
+      <c r="E16" s="17">
+        <f t="shared" si="0"/>
+        <v>82.425205479452046</v>
+      </c>
+      <c r="F16" s="17">
+        <f t="shared" si="1"/>
+        <v>192.32547945205479</v>
+      </c>
+      <c r="G16" s="14">
+        <f t="shared" si="2"/>
+        <v>1236.3780821917808</v>
+      </c>
+      <c r="H16" s="14">
+        <f t="shared" si="3"/>
+        <v>7693.0191780821915</v>
+      </c>
+      <c r="I16" s="14">
+        <f t="shared" si="4"/>
+        <v>8929.3972602739723</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C18" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="14">
-        <v>5</v>
-      </c>
-      <c r="E18">
-        <v>60</v>
+      <c r="C18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C19" s="13" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D19" s="14">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C20" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="14">
         <v>40</v>
+      </c>
+      <c r="E20">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
